--- a/app/files/templates/library_load_temp.xlsx
+++ b/app/files/templates/library_load_temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evgenysemenov/PycharmProjects/apeks-vuz-extension/app/files/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BA29B3-24C2-EB47-A930-D61A7BDB1119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA7F72C-7130-C342-BE51-818906C4ED82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="500" windowWidth="31700" windowHeight="18320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Дисциплина</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t xml:space="preserve">Дополнительная литература </t>
-  </si>
-  <si>
-    <t>Научная продукция</t>
   </si>
   <si>
     <t>Философия</t>
@@ -82,15 +79,6 @@
 7. Калинина, Е. Ю. История государства и права России в контексте европейской цивилизации: учебное пособие / Е. Ю. Калинина. - Саратов: Ай Пи Эр Медиа, 2019. - 111 c. - ISBN 978-5-4486-0757-8. - Текст: электронный // Электронно-библиотечная система IPR BOOKS: [сайт]. - URL: http://www.iprbookshop.ru/83268.html. - Режим доступа: для авторизир. пользователей
 8. Набиев, Р. Ф. История отечественного государства и права [Электронный ресурс]: учебное пособие. Ч. 1. Возникновение и развитие государственности на территории Содружества Независимых Государств / Р. Ф. Набиев; под ред. Ф. К. Зиннурова. - Казань: КЮИ МВД России, 2018. - 120 с. - URL: http://www.liborui.ru. – Режим доступа: для авторизир. пользователей
 9. Цечоев, В. К. История Отечественного государства и права: учебное пособие / В. К. Цечоев. - 5-е изд. - Москва: Прометей, 2017. - 458 c. - ISBN 978-5-906879-61-5. - Текст: электронный // Электронно-библиотечная система IPR BOOKS: [сайт]. - URL: http://www.iprbookshop.ru/94433.html. - Режим доступа: для авторизир. пользователей
-</t>
-  </si>
-  <si>
-    <t>Власов В.В. Религиоведение : учебное пособие.  [Электронный ресурс] - Орёл: ОрЮИ МВД России имени В.В. Лукьянова, 2020. – Режим доступа: http://portal.orui.ru.
-Сальников Е.В., Кузьменков В.А., Леонова И.А.  Философия : учебное пособие. [Электронный ресурс] - Орёл: ОрЮИ МВД России имени В.В. Лукьянова, 2020. – Режим доступа: http://portal.orui.ru.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выходов, А.А. Противодействие фальсификации фактов и событий истории Отечества на современном этапе [Электронный ресурс]: учебное пособие / Выходов А.А. - Орёл: ОрЮИ МВД России имени В.В. Лукьянова, 2019. – Режим доступа: http://portal.orui.ru.
-Выходов, А.А. Противодействие фальсификации фактов и событий истории Отечества на современном этапе [Электронный ресурс]: учебное пособие / Выходов А.А. - Орёл: ОрЮИ МВД России имени В.В. Лукьянова, 2019. – Режим доступа: http://portal.orui.ru.
 </t>
   </si>
 </sst>
@@ -171,7 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -179,12 +167,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -504,764 +486,637 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="68" style="1" customWidth="1"/>
     <col min="3" max="3" width="87.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:3" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="5"/>
-    </row>
-    <row r="62" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="5"/>
-    </row>
-    <row r="64" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="5"/>
-    </row>
-    <row r="65" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="3"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="5"/>
-    </row>
-    <row r="67" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="5"/>
-    </row>
-    <row r="68" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="3"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="5"/>
-    </row>
-    <row r="70" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="5"/>
-    </row>
-    <row r="71" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="3"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="5"/>
-    </row>
-    <row r="72" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="3"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="5"/>
-    </row>
-    <row r="73" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="3"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="5"/>
-    </row>
-    <row r="74" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="3"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="5"/>
-    </row>
-    <row r="75" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="5"/>
-    </row>
-    <row r="76" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="5"/>
-    </row>
-    <row r="77" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="5"/>
-    </row>
-    <row r="78" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="5"/>
-    </row>
-    <row r="79" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="5"/>
-    </row>
-    <row r="80" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="5"/>
-    </row>
-    <row r="81" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="3"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="5"/>
-    </row>
-    <row r="82" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="5"/>
-    </row>
-    <row r="83" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="3"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="5"/>
-    </row>
-    <row r="84" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="5"/>
-    </row>
-    <row r="85" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="5"/>
-    </row>
-    <row r="86" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="5"/>
-    </row>
-    <row r="87" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="5"/>
-    </row>
-    <row r="88" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="5"/>
-    </row>
-    <row r="89" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="3"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="5"/>
-    </row>
-    <row r="90" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="3"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="5"/>
-    </row>
-    <row r="91" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="3"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="5"/>
-    </row>
-    <row r="92" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="3"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="5"/>
-    </row>
-    <row r="93" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="3"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="5"/>
-    </row>
-    <row r="94" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="5"/>
-    </row>
-    <row r="95" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="3"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="5"/>
-    </row>
-    <row r="96" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="3"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="5"/>
-    </row>
-    <row r="97" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="3"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="5"/>
-    </row>
-    <row r="98" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="3"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="5"/>
-    </row>
-    <row r="99" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="3"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="5"/>
-    </row>
-    <row r="100" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="3"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="5"/>
-    </row>
-    <row r="101" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="3"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="5"/>
-    </row>
-    <row r="102" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="3"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="5"/>
-    </row>
-    <row r="103" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="103" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="3"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
-      <c r="D103" s="5"/>
-    </row>
-    <row r="104" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="104" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="3"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="5"/>
-    </row>
-    <row r="105" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="105" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="3"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
-      <c r="D105" s="5"/>
-    </row>
-    <row r="106" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="106" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="3"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="5"/>
-    </row>
-    <row r="107" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="107" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="3"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
-      <c r="D107" s="5"/>
-    </row>
-    <row r="108" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="108" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="3"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
-      <c r="D108" s="5"/>
-    </row>
-    <row r="109" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="109" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="3"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-      <c r="D109" s="5"/>
-    </row>
-    <row r="110" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="110" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="3"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
-      <c r="D110" s="5"/>
-    </row>
-    <row r="111" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="111" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="3"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
-      <c r="D111" s="5"/>
-    </row>
-    <row r="112" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="112" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="3"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
-      <c r="D112" s="5"/>
-    </row>
-    <row r="113" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="113" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="3"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
-      <c r="D113" s="5"/>
-    </row>
-    <row r="114" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="114" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="3"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
-      <c r="D114" s="5"/>
-    </row>
-    <row r="115" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="115" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="3"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
-      <c r="D115" s="5"/>
-    </row>
-    <row r="116" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="116" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="3"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
-      <c r="D116" s="5"/>
-    </row>
-    <row r="117" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="117" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="3"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
-      <c r="D117" s="5"/>
-    </row>
-    <row r="118" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="118" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="3"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
-      <c r="D118" s="5"/>
-    </row>
-    <row r="119" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="119" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="3"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="5"/>
-    </row>
-    <row r="120" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="120" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
-      <c r="D120" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
